--- a/academias/Física - Estadisticos 20202.xlsx
+++ b/academias/Física - Estadisticos 20202.xlsx
@@ -814,25 +814,25 @@
         <v>33</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F10">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G10">
-        <v>57.58</v>
+        <v>66.67</v>
       </c>
       <c r="H10">
-        <v>42.42</v>
+        <v>33.33</v>
       </c>
       <c r="I10">
         <v>7.2</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>9.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1461,25 +1461,25 @@
         <v>33</v>
       </c>
       <c r="E10">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>63.64</v>
+        <v>90.91</v>
       </c>
       <c r="H10">
-        <v>36.36</v>
+        <v>9.09</v>
       </c>
       <c r="I10">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="J10">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>33.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2108,25 +2108,25 @@
         <v>33</v>
       </c>
       <c r="E10">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>69.7</v>
+        <v>90.91</v>
       </c>
       <c r="H10">
-        <v>30.3</v>
+        <v>9.09</v>
       </c>
       <c r="I10">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>9.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">

--- a/academias/Física - Estadisticos 20202.xlsx
+++ b/academias/Física - Estadisticos 20202.xlsx
@@ -849,25 +849,25 @@
         <v>34</v>
       </c>
       <c r="E11">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F11">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>55.88</v>
+        <v>85.29000000000001</v>
       </c>
       <c r="H11">
-        <v>44.12</v>
+        <v>14.71</v>
       </c>
       <c r="I11">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="J11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>29.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1496,25 +1496,25 @@
         <v>34</v>
       </c>
       <c r="E11">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>52.94</v>
+        <v>94.12</v>
       </c>
       <c r="H11">
-        <v>47.06</v>
+        <v>5.88</v>
       </c>
       <c r="I11">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="J11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>44.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2108,19 +2108,19 @@
         <v>33</v>
       </c>
       <c r="E10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>90.91</v>
+        <v>100</v>
       </c>
       <c r="H10">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -2143,25 +2143,25 @@
         <v>34</v>
       </c>
       <c r="E11">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>64.70999999999999</v>
+        <v>100</v>
       </c>
       <c r="H11">
-        <v>35.29</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="J11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>29.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">

--- a/academias/Física - Estadisticos 20202.xlsx
+++ b/academias/Física - Estadisticos 20202.xlsx
@@ -1863,19 +1863,19 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>90.91</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>96.15000000000001</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1933,19 +1933,19 @@
         <v>29</v>
       </c>
       <c r="E5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>93.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="J5">
         <v>0</v>
